--- a/CardGame/Assets/Excel/MonsterData.xlsx
+++ b/CardGame/Assets/Excel/MonsterData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Project\Card\CardGame\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E51C16F-609D-4FB5-AC2F-1D6BD7E0A0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44020CC3-151F-4251-B3CF-6EB654BFC43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="2790" windowWidth="31680" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="31680" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterData" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CardGame/Assets/Excel/MonsterData.xlsx
+++ b/CardGame/Assets/Excel/MonsterData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_Project\Card\CardGame\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44020CC3-151F-4251-B3CF-6EB654BFC43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B3B689-A0C2-404A-B007-6865FCD9A6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="31680" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterData" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,7 +442,7 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -465,7 +465,7 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -488,7 +488,7 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -511,7 +511,7 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -534,7 +534,7 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -557,7 +557,7 @@
         <v>17</v>
       </c>
       <c r="C7">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D7">
         <v>5</v>
